--- a/datos/archivo_lotes2.xlsx
+++ b/datos/archivo_lotes2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\eclipse-workspace\Eclipse_Proyecto_1\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637A7BCA-FC1D-4108-81DE-174896214425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2741107-CA4E-49C7-A00B-DEC457FA5442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3948" yWindow="2292" windowWidth="17280" windowHeight="8964" xr2:uid="{863225D8-9274-4B0B-AFC6-1FEEB4E1F606}"/>
+    <workbookView xWindow="2184" yWindow="4848" windowWidth="17280" windowHeight="8964" xr2:uid="{863225D8-9274-4B0B-AFC6-1FEEB4E1F606}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Cerveza Heineken Lata x6</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Vinos y licores</t>
   </si>
   <si>
-    <t>Cerveza</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Aseo Personal</t>
   </si>
   <si>
-    <t>Higiene Dental</t>
-  </si>
-  <si>
     <t>cantidadOriginal</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
   </si>
   <si>
     <t>categoria</t>
-  </si>
-  <si>
-    <t>subcategoria1</t>
   </si>
   <si>
     <t>tipoRefrigerado</t>
@@ -457,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4C6B37-01FD-41BA-9C2A-A6C93A244E7D}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,51 +463,47 @@
     <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
       <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>550000</v>
@@ -525,7 +512,7 @@
         <v>12000</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -537,21 +524,18 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <f>228000*2</f>
@@ -561,25 +545,22 @@
         <v>8000</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>100008</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
